--- a/data/trans_dic/P2A_ner_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.07490558178564223</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0319542611462741</v>
+        <v>0.03195426114627412</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.06439658417995732</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01930321197120574</v>
+        <v>0.01631908673110269</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01868746351868718</v>
+        <v>0.01824611901788623</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04831785824880126</v>
+        <v>0.04748615117593471</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01708001854555772</v>
+        <v>0.01522870557651151</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03872166138290797</v>
+        <v>0.03885602741437497</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03768426424199395</v>
+        <v>0.03573755225310434</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.119654457133519</v>
+        <v>0.123079954997801</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01448593138099454</v>
+        <v>0.015024420329082</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03256986269691329</v>
+        <v>0.03357673838656355</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03301977647148559</v>
+        <v>0.0339948683564948</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09072457650219311</v>
+        <v>0.09166199228872471</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01790374781100904</v>
+        <v>0.0188248308937625</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06819479310542217</v>
+        <v>0.06291084125858783</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06057151756248144</v>
+        <v>0.06139063782938325</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1096831632986163</v>
+        <v>0.1082440900197014</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05416373071546688</v>
+        <v>0.05388307423717376</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09875096688061094</v>
+        <v>0.09993025859763224</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1016543801268104</v>
+        <v>0.09823199203372743</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2103340834360445</v>
+        <v>0.2158338987067127</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04151528454224093</v>
+        <v>0.042027486332959</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07060560804421688</v>
+        <v>0.07042383880540673</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06815390617406572</v>
+        <v>0.06852105857125777</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1454300479423017</v>
+        <v>0.1457120631847082</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04010695865022267</v>
+        <v>0.04250641025338282</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.0678836600631755</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04195480961753342</v>
+        <v>0.04195480961753341</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02325172776344307</v>
+        <v>0.02276145507911936</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01586081437933755</v>
+        <v>0.01709609915429852</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02006132945683018</v>
+        <v>0.01996034809647724</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01242158998992135</v>
+        <v>0.01315286229718816</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03591990564714109</v>
+        <v>0.03704713731932653</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04006635611865726</v>
+        <v>0.04011433230212635</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0766992665469404</v>
+        <v>0.07647454454606871</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0434232151112284</v>
+        <v>0.04289877917989032</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03518417812072764</v>
+        <v>0.03548651279985431</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03229231323258788</v>
+        <v>0.03254880534926027</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05392130601681229</v>
+        <v>0.05393894652796768</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03124613399474141</v>
+        <v>0.03232547906409668</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06130002845624962</v>
+        <v>0.05766689217512203</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05558408522035251</v>
+        <v>0.05440676433686911</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05206605368204431</v>
+        <v>0.05221798660908361</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04254964426581643</v>
+        <v>0.04160640315339475</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07945742806759352</v>
+        <v>0.07899788619432471</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08667885963033302</v>
+        <v>0.08288272908284096</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.130089262844519</v>
+        <v>0.1306544053741797</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07957506525157163</v>
+        <v>0.0773246902868978</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06265189994943753</v>
+        <v>0.06138792968585943</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06063226052764619</v>
+        <v>0.060822799218955</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08509724083250451</v>
+        <v>0.08586022634391979</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05425936537866076</v>
+        <v>0.05553353866594333</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.05647099779458679</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04294164757724412</v>
+        <v>0.04294164757724411</v>
       </c>
     </row>
     <row r="11">
@@ -983,37 +983,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01144757747191903</v>
+        <v>0.01168851938507694</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00888929691034355</v>
+        <v>0.008886472268269923</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01625656504303384</v>
+        <v>0.01689623859246467</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002716405667360274</v>
+        <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.006411771695538175</v>
+        <v>0.006329105940097825</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06202544628436873</v>
+        <v>0.0648432076121713</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03397604008752302</v>
+        <v>0.03723274587367212</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001496732798235038</v>
+        <v>0.001480206031669547</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01182533316614198</v>
+        <v>0.01157965106377938</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04060934185870222</v>
+        <v>0.04114145845258083</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03025030757175338</v>
+        <v>0.03004247111887257</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01638419735563572</v>
+        <v>0.01537037404106379</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04379529324885784</v>
+        <v>0.04716280639457684</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03889007294698731</v>
+        <v>0.0403440662658787</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06231087242911905</v>
+        <v>0.05988658278610229</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02344253770053225</v>
+        <v>0.02397575855511186</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03831904936708282</v>
+        <v>0.03750157698490646</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1284598306716518</v>
+        <v>0.1309133576653004</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07180540651737165</v>
+        <v>0.07585994532350762</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01344728995420171</v>
+        <v>0.01366947736836755</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03351615713025014</v>
+        <v>0.03402789080136388</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0764025317687571</v>
+        <v>0.07755803400475909</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0588494748823777</v>
+        <v>0.05793122088200196</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.08508518288092534</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.04369282390013288</v>
+        <v>0.04369282390013289</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.02991909237999954</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00904209551945212</v>
+        <v>0.008246725118052795</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01070426346625289</v>
+        <v>0.0115628040714134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02814782165467628</v>
+        <v>0.0275239932562923</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0289878256437614</v>
+        <v>0.03063302140830113</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02521841922844516</v>
+        <v>0.0229905824931092</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06167101004092065</v>
+        <v>0.06194276981425545</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05987581297319103</v>
+        <v>0.05848939936548114</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02690838063536662</v>
+        <v>0.02643792881366517</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01944485513534182</v>
+        <v>0.01935092165155513</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04098026676161095</v>
+        <v>0.04216246116241827</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04917783093358023</v>
+        <v>0.04968202975003819</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03342739837965408</v>
+        <v>0.03428831429807011</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04006843390456517</v>
+        <v>0.03962727880740539</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04445722862456367</v>
+        <v>0.04478402263704391</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0741628176935489</v>
+        <v>0.07171108006693457</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08714463351413301</v>
+        <v>0.09155466503215089</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0627667868899406</v>
+        <v>0.06189941575128909</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.117869524724669</v>
+        <v>0.1163499690397753</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1142079380395402</v>
+        <v>0.1177903075259816</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06903046882338842</v>
+        <v>0.06886254646223862</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04363499540085779</v>
+        <v>0.04385504926307075</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.074656306784423</v>
+        <v>0.07467919874252135</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08684619670693454</v>
+        <v>0.08632507562298275</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06613132776321286</v>
+        <v>0.06842739330953587</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01802728327508711</v>
+        <v>0.02065844677010703</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06099077332010451</v>
+        <v>0.06355273632764051</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04165080510524466</v>
+        <v>0.04110462664185598</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.003497821411084424</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03942127608636432</v>
+        <v>0.03958280556769341</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09788538337315328</v>
+        <v>0.09350465003692111</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09631552372452822</v>
+        <v>0.09501841293433488</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01598530925777215</v>
+        <v>0.01632835938463872</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03677494205505864</v>
+        <v>0.03776193229220675</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09127648369524048</v>
+        <v>0.09165297843570083</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07750946971072471</v>
+        <v>0.07968053646239751</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01236001693459679</v>
+        <v>0.01198338289812751</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07166523564211856</v>
+        <v>0.07478596408020467</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1391155030994584</v>
+        <v>0.1443498441042389</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1146984954915531</v>
+        <v>0.1150865644712445</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02903759274287544</v>
+        <v>0.02856898096881682</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1140851423773893</v>
+        <v>0.1169109607695043</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1895669545747052</v>
+        <v>0.1916631507046686</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1857331497180026</v>
+        <v>0.1902713079963653</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04682490091029636</v>
+        <v>0.04675421858028579</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08009557170243696</v>
+        <v>0.08462435980865986</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1541309054107482</v>
+        <v>0.1558348096931807</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1343168547185827</v>
+        <v>0.1370948761697669</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0319282171143275</v>
+        <v>0.03169768331318317</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.08309154060734802</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.03792087825911321</v>
+        <v>0.0379208782591132</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003597747332368461</v>
+        <v>0.00360254633453894</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02508881786545835</v>
+        <v>0.02367887536937213</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02109712318932603</v>
+        <v>0.02135582466084689</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01824138910419884</v>
+        <v>0.01847236106147199</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01775636146326582</v>
+        <v>0.01700892442611443</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.08656372487777186</v>
+        <v>0.08600150226141376</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0241550811758747</v>
+        <v>0.02498642193341234</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01429422051888373</v>
+        <v>0.01484675933968538</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01080945523278002</v>
+        <v>0.01042529062326365</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.05862024776888033</v>
+        <v>0.06123797931168493</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.027093318200492</v>
+        <v>0.02567529508167984</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03274452770892543</v>
+        <v>0.03321543743750122</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01978670276580322</v>
+        <v>0.01547665661690767</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07731777716718888</v>
+        <v>0.07474365379949564</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06008052220235076</v>
+        <v>0.05961353307557847</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06660983222086142</v>
+        <v>0.06276989504551307</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06308508792866718</v>
+        <v>0.06269999218688602</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1641437686523969</v>
+        <v>0.1663210411543848</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06070716801458548</v>
+        <v>0.06019218125149527</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0413223302165131</v>
+        <v>0.04205516965791619</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03523396737016143</v>
+        <v>0.03607023060212867</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1065353267109305</v>
+        <v>0.1088794090429925</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05361239913064999</v>
+        <v>0.05211020807800532</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.009769961779915442</v>
+        <v>0.009050329687395831</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01617759560194382</v>
+        <v>0.01649287173342688</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02732980062176992</v>
+        <v>0.02850414916375208</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03389718071313473</v>
+        <v>0.03541694173451669</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02206114158642532</v>
+        <v>0.02197362710845669</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01291422524150065</v>
+        <v>0.01315245062924824</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08561021283981471</v>
+        <v>0.0866169917730029</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0520267303534617</v>
+        <v>0.05219937444995828</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01799337412340709</v>
+        <v>0.01873899365520811</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01759463314132369</v>
+        <v>0.01774128102716447</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.06276854636202274</v>
+        <v>0.06203083955381505</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.0489606298105993</v>
+        <v>0.04785868376101583</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02915458208516421</v>
+        <v>0.02879617659313381</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04214381273784688</v>
+        <v>0.04056466224751303</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06397153437738613</v>
+        <v>0.0605454296287176</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07354572049813048</v>
+        <v>0.07558433866691301</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05227594439968767</v>
+        <v>0.05093062989630397</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03790653481914787</v>
+        <v>0.03908784667882943</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.137699965586332</v>
+        <v>0.1380725639493087</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08333361610675445</v>
+        <v>0.08499483554957636</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03598757514159207</v>
+        <v>0.03544181109047515</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03472842013330321</v>
+        <v>0.03469812592514579</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.09371837734673935</v>
+        <v>0.09320099292726829</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.07366536002816038</v>
+        <v>0.07270123171509744</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.07739715262682673</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.03313123024809507</v>
+        <v>0.03313123024809508</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02993511125067206</v>
+        <v>0.02887861158693075</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01815433144917169</v>
+        <v>0.01834628239267512</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03427516944656396</v>
+        <v>0.0338005258040831</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01502987773418934</v>
+        <v>0.01456814786012314</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04146831499386364</v>
+        <v>0.04095947852110588</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02462969375338902</v>
+        <v>0.02516376216017515</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.0859374916621528</v>
+        <v>0.08591615897593723</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.03137912457286221</v>
+        <v>0.03046927810991523</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03822513748326381</v>
+        <v>0.03961629841124945</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02410172947662251</v>
+        <v>0.02481340403695058</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.06415679083291002</v>
+        <v>0.06323660809283443</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02641046271799963</v>
+        <v>0.02679284585367289</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05856562437059747</v>
+        <v>0.06239361560696275</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04876286406208316</v>
+        <v>0.04801328326650406</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0631084100804641</v>
+        <v>0.06427064099604766</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03634924581737575</v>
+        <v>0.03657624365609086</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07650409786527747</v>
+        <v>0.07674881412441914</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05033541081457808</v>
+        <v>0.05312899691559585</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1330648753704615</v>
+        <v>0.1316777832954538</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0537019650695454</v>
+        <v>0.05429161710523853</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06167737492816378</v>
+        <v>0.06219463108670952</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.04338404798485235</v>
+        <v>0.04393327695609481</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.09259493584839128</v>
+        <v>0.09113849833198694</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.04181398622349535</v>
+        <v>0.04230166616986313</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.1102538922748162</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.04809481176350057</v>
+        <v>0.04809481176350056</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.03694152896909649</v>
@@ -1785,7 +1785,7 @@
         <v>0.07839479329151855</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.04152870229499092</v>
+        <v>0.04152870229499091</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02206400712316557</v>
+        <v>0.02201620547531691</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02475570453097915</v>
+        <v>0.0248041763386545</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03829418966934558</v>
+        <v>0.03858304280917845</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02832844147691267</v>
+        <v>0.02803759447404517</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.03919172628387023</v>
+        <v>0.03885182444049251</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.04213703710780124</v>
+        <v>0.04177398391423003</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1001136734966296</v>
+        <v>0.1007488491624178</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.04250782549045935</v>
+        <v>0.04280583955611527</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.03292772153812926</v>
+        <v>0.03226855478867166</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.03549056294749885</v>
+        <v>0.03554914311377162</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.07154409376801985</v>
+        <v>0.07209966493577387</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.03701404221082222</v>
+        <v>0.03731728425569844</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03398913916228714</v>
+        <v>0.03433946607954604</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03688922285453251</v>
+        <v>0.03707978731597227</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.05247921054564728</v>
+        <v>0.05352888622643755</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.0412130449731771</v>
+        <v>0.04142558111685722</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.05358341897763245</v>
+        <v>0.05426981072098378</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.05709469365034277</v>
+        <v>0.05654822531355622</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1224556491772921</v>
+        <v>0.1225624818039114</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.05410845225639486</v>
+        <v>0.05455467979734376</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.04191629888241421</v>
+        <v>0.04195306218192644</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.04536867160329198</v>
+        <v>0.04536884175255296</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.08470088887638755</v>
+        <v>0.08566991677627277</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.04612465339566971</v>
+        <v>0.04604764883757766</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5270</v>
+        <v>4455</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5508</v>
+        <v>5378</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14194</v>
+        <v>13950</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5446</v>
+        <v>4856</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>10100</v>
+        <v>10135</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10825</v>
+        <v>10265</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>34545</v>
+        <v>35534</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4578</v>
+        <v>4749</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17387</v>
+        <v>17925</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>19217</v>
+        <v>19784</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>52844</v>
+        <v>53390</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>11367</v>
+        <v>11952</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18618</v>
+        <v>17175</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17853</v>
+        <v>18094</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32221</v>
+        <v>31798</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17270</v>
+        <v>17180</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25758</v>
+        <v>26066</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>29200</v>
+        <v>28217</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>60724</v>
+        <v>62312</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13121</v>
+        <v>13283</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>37693</v>
+        <v>37596</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>39664</v>
+        <v>39878</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>84708</v>
+        <v>84872</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>25464</v>
+        <v>26988</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11465</v>
+        <v>11223</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8018</v>
+        <v>8643</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10082</v>
+        <v>10032</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6591</v>
+        <v>6980</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>18102</v>
+        <v>18670</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>20985</v>
+        <v>21010</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>40120</v>
+        <v>40003</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23731</v>
+        <v>23444</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>35079</v>
+        <v>35381</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>33238</v>
+        <v>33502</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>55305</v>
+        <v>55323</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>33656</v>
+        <v>34819</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30226</v>
+        <v>28434</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28099</v>
+        <v>27504</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>26167</v>
+        <v>26243</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>22579</v>
+        <v>22078</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>40042</v>
+        <v>39811</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>45399</v>
+        <v>43411</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>68048</v>
+        <v>68343</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>43487</v>
+        <v>42257</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>62465</v>
+        <v>61205</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>62408</v>
+        <v>62604</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>87281</v>
+        <v>88063</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>58445</v>
+        <v>59817</v>
       </c>
     </row>
     <row r="12">
@@ -2511,37 +2511,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3710</v>
+        <v>3788</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5137</v>
+        <v>5339</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>911</v>
+        <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2187</v>
+        <v>2158</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>20860</v>
+        <v>21807</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>12108</v>
+        <v>13269</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7865</v>
+        <v>7701</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>26594</v>
+        <v>26942</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>20340</v>
+        <v>20200</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5224</v>
+        <v>4901</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14192</v>
+        <v>15283</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12389</v>
+        <v>12852</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>19690</v>
+        <v>18924</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7863</v>
+        <v>8042</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13068</v>
+        <v>12789</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>43202</v>
+        <v>44027</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25590</v>
+        <v>27035</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8798</v>
+        <v>8943</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>22290</v>
+        <v>22631</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>50034</v>
+        <v>50791</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>39569</v>
+        <v>38952</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3243</v>
+        <v>2958</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4003</v>
+        <v>4324</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10414</v>
+        <v>10183</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10817</v>
+        <v>11431</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9368</v>
+        <v>8540</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>23987</v>
+        <v>24093</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>23189</v>
+        <v>22652</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>11354</v>
+        <v>11156</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>14197</v>
+        <v>14129</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>31265</v>
+        <v>32167</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>37240</v>
+        <v>37622</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>26578</v>
+        <v>27263</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14371</v>
+        <v>14213</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16626</v>
+        <v>16748</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>27438</v>
+        <v>26531</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>32518</v>
+        <v>34163</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>23315</v>
+        <v>22993</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>45845</v>
+        <v>45254</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>44231</v>
+        <v>45618</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>29128</v>
+        <v>29057</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>31859</v>
+        <v>32020</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>56958</v>
+        <v>56975</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>65764</v>
+        <v>65369</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>52581</v>
+        <v>54407</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3665</v>
+        <v>4200</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>12968</v>
+        <v>13512</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8798</v>
+        <v>8682</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>8187</v>
+        <v>8220</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>21495</v>
+        <v>20533</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>21053</v>
+        <v>20770</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3659</v>
+        <v>3738</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>15114</v>
+        <v>15519</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>39451</v>
+        <v>39613</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>33314</v>
+        <v>34247</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5371</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14570</v>
+        <v>15205</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>29578</v>
+        <v>30691</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>24227</v>
+        <v>24309</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>5972</v>
+        <v>5876</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>23692</v>
+        <v>24279</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>41627</v>
+        <v>42088</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>40599</v>
+        <v>41591</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>10719</v>
+        <v>10703</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>32917</v>
+        <v>34779</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>66617</v>
+        <v>67353</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>57730</v>
+        <v>58924</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>13875</v>
+        <v>13775</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6601</v>
+        <v>6230</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5711</v>
+        <v>5781</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5074</v>
+        <v>5138</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>4972</v>
+        <v>4763</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>23642</v>
+        <v>23488</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>6371</v>
+        <v>6590</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>7847</v>
+        <v>8150</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>5989</v>
+        <v>5776</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>31434</v>
+        <v>32838</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>14480</v>
+        <v>13722</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8868</v>
+        <v>8995</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5421</v>
+        <v>4240</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>20344</v>
+        <v>19667</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>16264</v>
+        <v>16138</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>18527</v>
+        <v>17459</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>17666</v>
+        <v>17558</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>44830</v>
+        <v>45425</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>16012</v>
+        <v>15876</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>22684</v>
+        <v>23086</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>19520</v>
+        <v>19983</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>57128</v>
+        <v>58385</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>28654</v>
+        <v>27851</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>6009</v>
+        <v>5566</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>10722</v>
+        <v>10931</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>17944</v>
+        <v>18715</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>24395</v>
+        <v>25489</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>14080</v>
+        <v>14024</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>8961</v>
+        <v>9126</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>59182</v>
+        <v>59878</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>40168</v>
+        <v>40301</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>22550</v>
+        <v>23485</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>23870</v>
+        <v>24069</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>84603</v>
+        <v>83608</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>73037</v>
+        <v>71393</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>17931</v>
+        <v>17710</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>27932</v>
+        <v>26886</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>42001</v>
+        <v>39752</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>52930</v>
+        <v>54397</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>33364</v>
+        <v>32505</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>26302</v>
+        <v>27121</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>95191</v>
+        <v>95449</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>64338</v>
+        <v>65621</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>45101</v>
+        <v>44417</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>47114</v>
+        <v>47073</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>126319</v>
+        <v>125621</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>109890</v>
+        <v>108452</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>22266</v>
+        <v>21480</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>14144</v>
+        <v>14294</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>26686</v>
+        <v>26317</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>11995</v>
+        <v>11626</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>32491</v>
+        <v>32092</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>20291</v>
+        <v>20731</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>70999</v>
+        <v>70981</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>26086</v>
+        <v>25330</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>58381</v>
+        <v>60506</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>38634</v>
+        <v>39775</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>102956</v>
+        <v>101479</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>43033</v>
+        <v>43656</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>43561</v>
+        <v>46408</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>37991</v>
+        <v>37407</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>49135</v>
+        <v>50040</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>29009</v>
+        <v>29190</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>59942</v>
+        <v>60134</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>41469</v>
+        <v>43770</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>109934</v>
+        <v>108788</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>44644</v>
+        <v>45134</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>94200</v>
+        <v>94990</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>69543</v>
+        <v>70423</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>148592</v>
+        <v>146255</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>68132</v>
+        <v>68926</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>72294</v>
+        <v>72137</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>84832</v>
+        <v>84998</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>129984</v>
+        <v>130964</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>100078</v>
+        <v>99050</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>132437</v>
+        <v>131288</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>149937</v>
+        <v>148645</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>354857</v>
+        <v>357109</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>158850</v>
+        <v>159963</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>219158</v>
+        <v>214771</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>247905</v>
+        <v>248314</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>496437</v>
+        <v>500292</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>269082</v>
+        <v>271286</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>111367</v>
+        <v>112515</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>126411</v>
+        <v>127064</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>178133</v>
+        <v>181696</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>145596</v>
+        <v>146347</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>181069</v>
+        <v>183388</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>203161</v>
+        <v>201216</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>434049</v>
+        <v>434428</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>202201</v>
+        <v>203868</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>278984</v>
+        <v>279229</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>316904</v>
+        <v>316905</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>587730</v>
+        <v>594454</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>335313</v>
+        <v>334753</v>
       </c>
     </row>
     <row r="40">
